--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2298.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2298.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.560999833390642</v>
+        <v>1.157674908638</v>
       </c>
       <c r="B1">
-        <v>3.130759512308279</v>
+        <v>2.255504369735718</v>
       </c>
       <c r="C1">
-        <v>2.783164247505263</v>
+        <v>3.033737182617188</v>
       </c>
       <c r="D1">
-        <v>3.060036586785596</v>
+        <v>1.429672241210938</v>
       </c>
       <c r="E1">
-        <v>2.812670489616107</v>
+        <v>1.026046752929688</v>
       </c>
     </row>
   </sheetData>
